--- a/Mobile/Week_4/regressionTesting.xlsx
+++ b/Mobile/Week_4/regressionTesting.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\QA\Week_14_Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE4AABEC-0FFB-4612-9E4B-531F5E790A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112B9EE7-012F-42CE-AE04-41314A2E65C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7690CF09-971E-4816-A71A-16535F1AB585}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7690CF09-971E-4816-A71A-16535F1AB585}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="summary" sheetId="1" r:id="rId1"/>
+    <sheet name="regressionTesting" sheetId="2" r:id="rId2"/>
+    <sheet name="retesting" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,16 +38,451 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>WIP</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="146">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Download and install the app</t>
+  </si>
+  <si>
+    <t>1. Navigate to App Store/Play Store/Provided link</t>
+  </si>
+  <si>
+    <t>The app should successfully download and install without any errors or interruptions.</t>
+  </si>
+  <si>
+    <t>The app is successfully downloaded and installed without any errors or interruptions</t>
+  </si>
+  <si>
+    <t>http://www.mobileapp.app/to/E0NjF73?ref=mam</t>
+  </si>
+  <si>
+    <t>2. Download and install the app</t>
+  </si>
+  <si>
+    <t>Launch the app</t>
+  </si>
+  <si>
+    <t>1. Open the Skybot app after installation</t>
+  </si>
+  <si>
+    <t>The app should launch without any crashes and show the splash screen, followed by the main screen or onboarding (if any).</t>
+  </si>
+  <si>
+    <t>The app is launched without any crashes</t>
+  </si>
+  <si>
+    <t>Application navigation between screens</t>
+  </si>
+  <si>
+    <t>1. Navigate between the Home, Profile, Cart, and other main screens.</t>
+  </si>
+  <si>
+    <t>Users should be able to move between all screens smoothly without any crashes. Buttons and navigation links should work as expected.</t>
+  </si>
+  <si>
+    <t>Users is able to move between all screens because registration is required</t>
+  </si>
+  <si>
+    <t>Navigation is not possible on first launch. The application requires registration for further interaction with the interface</t>
+  </si>
+  <si>
+    <t>2. Click on menus and buttons for navigation.</t>
+  </si>
+  <si>
+    <t>After registration users is able to move between all screens</t>
+  </si>
+  <si>
+    <t>After registration, navigation became available.</t>
+  </si>
+  <si>
+    <t>Registration of a new user</t>
+  </si>
+  <si>
+    <t>1. Click on "Register"</t>
+  </si>
+  <si>
+    <t>The user should be able to successfully register, and a confirmation message should appear.</t>
+  </si>
+  <si>
+    <t>The user is successfully registered</t>
+  </si>
+  <si>
+    <t>Instead of the "Registration" button there is a "Join" button</t>
+  </si>
+  <si>
+    <t>2. Enter valid user details (e.g., name, email, password)</t>
+  </si>
+  <si>
+    <t>3. Submit the form</t>
+  </si>
+  <si>
+    <t>User Login (Authorization)</t>
+  </si>
+  <si>
+    <t>1. Open the app</t>
+  </si>
+  <si>
+    <t>The user should be able to log in successfully and be directed to the main dashboard or home screen.</t>
+  </si>
+  <si>
+    <t>The user is successfully logged in</t>
+  </si>
+  <si>
+    <t>2. Enter valid login credentials</t>
+  </si>
+  <si>
+    <t>3. Click "Login"</t>
+  </si>
+  <si>
+    <t>View product list</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "Products" or "Shop" section</t>
+  </si>
+  <si>
+    <t>All available products should be displayed with correct images and details.</t>
+  </si>
+  <si>
+    <t>All available products is displayed with correct images and details.</t>
+  </si>
+  <si>
+    <t>2. Scroll through the available products</t>
+  </si>
+  <si>
+    <t>Add product to cart</t>
+  </si>
+  <si>
+    <t>1. Select a product</t>
+  </si>
+  <si>
+    <t>The product should be added to the cart successfully, and the cart count should update.</t>
+  </si>
+  <si>
+    <t>The product is added to the cart successfully, and the cart count is updated</t>
+  </si>
+  <si>
+    <t>2. Click "Add to Cart"</t>
+  </si>
+  <si>
+    <t>3. Check the cart</t>
+  </si>
+  <si>
+    <t>Place an order</t>
+  </si>
+  <si>
+    <t>1. Add products to the cart</t>
+  </si>
+  <si>
+    <t>The user should be able to place an order successfully, and a confirmation message should be displayed.</t>
+  </si>
+  <si>
+    <t>The product has been added to the cart but the checkout function is not implemented</t>
+  </si>
+  <si>
+    <t>2. Proceed to checkout</t>
+  </si>
+  <si>
+    <t>3. Enter valid shipping/payment details</t>
+  </si>
+  <si>
+    <t>4. Confirm the order</t>
+  </si>
+  <si>
+    <t>Correct display of images and text</t>
+  </si>
+  <si>
+    <t>1. Browse through the app (Home, Product, Cart pages)</t>
+  </si>
+  <si>
+    <t>Images, buttons, and text should display properly on different screens. No missing images, broken layouts, or misaligned components should be present.</t>
+  </si>
+  <si>
+    <t>Buttons, images, and text are displayed correctly on different devices. Some inscriptions are in a foreign language, and the text formatting in product descriptions is broken</t>
+  </si>
+  <si>
+    <t>2. Check that images, buttons, and text are displayed correctly</t>
+  </si>
+  <si>
+    <t>Display of interface components</t>
+  </si>
+  <si>
+    <t>1. Check interface elements like buttons, input fields, lists, and dropdowns on different screens</t>
+  </si>
+  <si>
+    <t>All UI components should be visible, functional, and displayed correctly.</t>
+  </si>
+  <si>
+    <t>Compatibility on iOS</t>
+  </si>
+  <si>
+    <t>1. Run the app on an iOS device</t>
+  </si>
+  <si>
+    <t>The app should function correctly on iOS without crashes or display issues.</t>
+  </si>
+  <si>
+    <t>The app is functioned correctly on iOS without crashes or display issues.</t>
+  </si>
+  <si>
+    <t>Apple SE 2 Generation (2023) / iOS 18</t>
+  </si>
+  <si>
+    <t>2. Perform navigation, registration, login, and basic actions</t>
+  </si>
+  <si>
+    <t>Compatibility on Android</t>
+  </si>
+  <si>
+    <t>1. Run the app on an Android device</t>
+  </si>
+  <si>
+    <t>The app should function correctly on Android without crashes or display issues.</t>
+  </si>
+  <si>
+    <t>The app is functioned correctly on Android without crashes or display issues</t>
+  </si>
+  <si>
+    <t>Samsung S21+5G / Android 14</t>
+  </si>
+  <si>
+    <t>REG01</t>
+  </si>
+  <si>
+    <t>REG02</t>
+  </si>
+  <si>
+    <t>REG04</t>
+  </si>
+  <si>
+    <t>REG05</t>
+  </si>
+  <si>
+    <t>REG06</t>
+  </si>
+  <si>
+    <t>REG07</t>
+  </si>
+  <si>
+    <t>REG09</t>
+  </si>
+  <si>
+    <t>REG12</t>
+  </si>
+  <si>
+    <t>REG03</t>
+  </si>
+  <si>
+    <t>REG08</t>
+  </si>
+  <si>
+    <t>ReT01</t>
+  </si>
+  <si>
+    <t>ReT02</t>
+  </si>
+  <si>
+    <t>Verify that the product name is displayed correctly</t>
+  </si>
+  <si>
+    <t>1. Navigate to the product details page</t>
+  </si>
+  <si>
+    <t>The product name should be visible, properly aligned, and match the product selected.</t>
+  </si>
+  <si>
+    <t>2. Check for the product name</t>
+  </si>
+  <si>
+    <t>Verify that the product price is displayed correctly</t>
+  </si>
+  <si>
+    <t>The price should be visible, formatted correctly (e.g., $100.00), and align with the selected product.</t>
+  </si>
+  <si>
+    <t>2. Check for the product price</t>
+  </si>
+  <si>
+    <t>Verify the display of product description</t>
+  </si>
+  <si>
+    <t>The product description should be visible, legible, and match the product selected.</t>
+  </si>
+  <si>
+    <t>2. Check for the product description text</t>
+  </si>
+  <si>
+    <t>The text formatting in the description is broken</t>
+  </si>
+  <si>
+    <t>Verify the display of product ratings and reviews</t>
+  </si>
+  <si>
+    <t>Product ratings (stars) and reviews (if any) should be visible and displayed correctly.</t>
+  </si>
+  <si>
+    <t>2. Check for product ratings and reviews</t>
+  </si>
+  <si>
+    <t>Rating is missing</t>
+  </si>
+  <si>
+    <t>Verify that the "Buy Now" button is visible and functional</t>
+  </si>
+  <si>
+    <t>The "Buy Now" button should be visible, and tapping it should navigate to the checkout screen.</t>
+  </si>
+  <si>
+    <t>"Buy it now" button is missing</t>
+  </si>
+  <si>
+    <t>2. Check for the "Buy Now" button</t>
+  </si>
+  <si>
+    <t>3. Tap the button</t>
+  </si>
+  <si>
+    <t>Verify that the product details page layout adjusts correctly when switching between portrait and landscape orientations</t>
+  </si>
+  <si>
+    <t>The product details page layout should adjust smoothly, with all elements remaining visible and properly aligned in both orientations.</t>
+  </si>
+  <si>
+    <t>2. Switch between portrait and landscape modes</t>
+  </si>
+  <si>
+    <t>There is no change in orientation between portrait and landscape mode</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t>Skybot Mobile Application</t>
+  </si>
+  <si>
+    <t>Iteration:</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Tester name</t>
+  </si>
+  <si>
+    <t>Viktor Relitskyi</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Test enviroment</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21</t>
+  </si>
+  <si>
+    <t>iPhone SE</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Android 14</t>
+  </si>
+  <si>
+    <t>iOS 18</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WiFi (500Mb), 4G/5G </t>
+  </si>
+  <si>
+    <t>Regression And Retesting of the Skybot Mobile Application v. 1.0</t>
+  </si>
+  <si>
+    <t>10.14.2024</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>The price display has been corrected</t>
+  </si>
+  <si>
+    <t>The some products names are written in different languages (комплект захисного спорядження/Аккумулятор)</t>
+  </si>
+  <si>
+    <t>ReT03</t>
+  </si>
+  <si>
+    <t>ReT04</t>
+  </si>
+  <si>
+    <t>ReT05</t>
+  </si>
+  <si>
+    <t>ReT07</t>
+  </si>
+  <si>
+    <t>ReT08</t>
+  </si>
+  <si>
+    <t>ReT06</t>
+  </si>
+  <si>
+    <t>Some product names contain foreign headings.</t>
+  </si>
+  <si>
+    <t>Product description formatting is broken</t>
+  </si>
+  <si>
+    <t>There is no rating and review system for products</t>
+  </si>
+  <si>
+    <t>There is no "Buy Now" button</t>
+  </si>
+  <si>
+    <t>Product checkout and payment do not work</t>
+  </si>
+  <si>
+    <t>Service booking functionality does not work</t>
+  </si>
+  <si>
+    <t>I would recommend fixing all these issues for the next iteration as they affect the user experience, and the most critical ones, such as product checkout and payment, do not allow customers to make purchases through the app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,22 +492,95 @@
     </font>
     <font>
       <b/>
-      <sz val="72"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2D2D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -78,17 +588,242 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,21 +1156,1037 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C030DCB-AE31-40DB-B417-E9C2573E594D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="18" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2250EB15-030E-4CE4-A427-7D747DACBC31}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="7" width="39.7109375" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A751E70A-A20E-45A6-9542-BE235B752381}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="G16" s="12"/>
+      <c r="H16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="G18" s="12"/>
+      <c r="H18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="40"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>